--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3B_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3B_genetic_schedule.xlsx
@@ -520,9 +520,9 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 203</t>
+          <t>FM 412 - Fluid Mechanics
+3B
+Room 187</t>
         </is>
       </c>
     </row>
@@ -540,13 +540,7 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>CS 411 - Control Systems
-3B
-Room 206</t>
-        </is>
-      </c>
+      <c r="B4" s="2" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -554,12 +548,11 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 184</t>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>EM 415 - Engineering Management
+3B
+Room 210</t>
         </is>
       </c>
     </row>
@@ -569,14 +562,7 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>AT 413 - Advanced Thermodynamics
-3B
-Room 208</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -585,7 +571,6 @@
         </is>
       </c>
       <c r="B7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -593,8 +578,13 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CS 411 - Control Systems
+3B
+Room 206</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -626,9 +616,9 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>EM 415 - Engineering Management
-3B
-Room 210</t>
+          <t>ACAD 408 - Advanced CAD
+3B
+Room 184</t>
         </is>
       </c>
     </row>
@@ -647,6 +637,13 @@
         </is>
       </c>
       <c r="B14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>MT 414 - Manufacturing
+3B
+Room 188</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -655,6 +652,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>AE 410 - Advanced Electronics
+3B
+Room 74</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -662,7 +667,14 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>AT 413 - Advanced Thermodynamics
+3B
+Room 208</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -670,13 +682,8 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>MT 414 - Manufacturing
-3B
-Room 188</t>
-        </is>
-      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -685,6 +692,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -693,6 +701,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -709,9 +718,9 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CS 411 - Control Systems
-3B
-Room 186</t>
+          <t>FM 412 - Fluid Mechanics
+3B
+Room 207</t>
         </is>
       </c>
     </row>
@@ -729,13 +738,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>FM 412 - Fluid Mechanics
-3B
-Room 207</t>
-        </is>
-      </c>
+      <c r="B23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -743,7 +746,13 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MT 414 - Manufacturing
+3B
+Room 209</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -769,17 +778,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="11">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
